--- a/biology/Botanique/Red_Pontiac/Red_Pontiac.xlsx
+++ b/biology/Botanique/Red_Pontiac/Red_Pontiac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La 'Red Pontiac', connue aussi sous le nom de 'Dakota Chief', est une variété de pomme de terre à peau rouge et à faible teneur en matière sèche, originaire des États-Unis. Sélectionnée en 1949 en Floride par l'obtenteur J. W. Weston, elle est issue d'une mutation de la variété 'Pontiac' créée en 1938 par le département de l'Agriculture des États-Unis (USDA)[1].
-Elle est enregistrée depuis le 31 décembre 1977 au catalogue officiel européen des variétés ainsi qu'aux catalogues nationaux en Espagne, France et Luxembourg[2].
+La 'Red Pontiac', connue aussi sous le nom de 'Dakota Chief', est une variété de pomme de terre à peau rouge et à faible teneur en matière sèche, originaire des États-Unis. Sélectionnée en 1949 en Floride par l'obtenteur J. W. Weston, elle est issue d'une mutation de la variété 'Pontiac' créée en 1938 par le département de l'Agriculture des États-Unis (USDA).
+Elle est enregistrée depuis le 31 décembre 1977 au catalogue officiel européen des variétés ainsi qu'aux catalogues nationaux en Espagne, France et Luxembourg.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante, de taille assez élevée, a un port légèrement étalé. Les tiges, épaisses, ont des angles marqués, avec les nœuds légèrement colorés en rouge pourpre, et des ailes proéminentes et doubles.
 Les fleurs, grandes, pourpre clair, ont les extrémités des pétales blanches.
